--- a/mbs-perturbation/mega/MLP/nearmiss/mega-mlp-nearmiss-results.xlsx
+++ b/mbs-perturbation/mega/MLP/nearmiss/mega-mlp-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5479041916167665</v>
+        <v>0.708171206225681</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9838709677419355</v>
+        <v>0.978494623655914</v>
       </c>
       <c r="D2" t="n">
-        <v>0.703846153846154</v>
+        <v>0.8216704288939052</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8372355185570587</v>
+        <v>0.8083448953636259</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7721518987341772</v>
+        <v>0.8863636363636364</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6559139784946236</v>
+        <v>0.6290322580645161</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7093023255813953</v>
+        <v>0.7358490566037735</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8074488380159556</v>
+        <v>0.7041999075037577</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8520710059171598</v>
+        <v>0.910828025477707</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7741935483870968</v>
+        <v>0.7688172043010753</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8112676056338027</v>
+        <v>0.8338192419825073</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9039773384206267</v>
+        <v>0.8423806220372297</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.668141592920354</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8118279569892473</v>
+        <v>0.8279569892473119</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7330097087378641</v>
+        <v>0.9058823529411765</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8320836965998257</v>
+        <v>0.914240046498111</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9935483870967742</v>
+        <v>0.9733333333333334</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8324324324324325</v>
+        <v>0.7891891891891892</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9058823529411765</v>
+        <v>0.8716417910447761</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9507410636442895</v>
+        <v>0.9023830281894798</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7667634152570464</v>
+        <v>0.8957392402800716</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8116477768090672</v>
+        <v>0.7986980528916012</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7726616293480785</v>
+        <v>0.8337725742932276</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8662972910475512</v>
+        <v>0.834309699918441</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/mega/MLP/nearmiss/mega-mlp-nearmiss-results.xlsx
+++ b/mbs-perturbation/mega/MLP/nearmiss/mega-mlp-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.708171206225681</v>
+        <v>0.5100671140939598</v>
       </c>
       <c r="C2" t="n">
-        <v>0.978494623655914</v>
+        <v>0.8994082840236687</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8216704288939052</v>
+        <v>0.6509635974304069</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8083448953636259</v>
+        <v>0.704597177969959</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8863636363636364</v>
+        <v>0.6881188118811881</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6290322580645161</v>
+        <v>0.8224852071005917</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7358490566037735</v>
+        <v>0.7493261455525606</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7041999075037577</v>
+        <v>0.838451034627639</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.910828025477707</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7688172043010753</v>
+        <v>0.8520710059171598</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8338192419825073</v>
+        <v>0.85459940652819</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8423806220372297</v>
+        <v>0.9053604565666468</v>
       </c>
     </row>
     <row r="5">
@@ -527,13 +527,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8279569892473119</v>
+        <v>0.8165680473372781</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9058823529411765</v>
+        <v>0.8990228013029316</v>
       </c>
       <c r="E5" t="n">
-        <v>0.914240046498111</v>
+        <v>0.9779419488113161</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9733333333333334</v>
+        <v>0.9655172413793104</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7891891891891892</v>
+        <v>0.8284023668639053</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8716417910447761</v>
+        <v>0.8917197452229301</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9023830281894798</v>
+        <v>0.9754560414551311</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8957392402800716</v>
+        <v>0.804169204899463</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7986980528916012</v>
+        <v>0.8437869822485207</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8337725742932276</v>
+        <v>0.8091263392074038</v>
       </c>
       <c r="E7" t="n">
-        <v>0.834309699918441</v>
+        <v>0.8803613318861384</v>
       </c>
     </row>
   </sheetData>
